--- a/Overall Stats/Lost Creek/Lost Creek Report.xlsx
+++ b/Overall Stats/Lost Creek/Lost Creek Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Lost Creek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Lost Creek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC3DCBA-23B3-48F6-9841-C5E67CA3AD67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644B537-E37E-4C87-A9E7-5CA772FF0685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -157,13 +152,31 @@
   </si>
   <si>
     <t>Chub</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Lost Creek</t>
+  </si>
+  <si>
+    <t>2 Cutthroat 4 Rainbow</t>
+  </si>
+  <si>
+    <t>2 Rainbow</t>
+  </si>
+  <si>
+    <t>3 Chub 16 Cutthroat</t>
+  </si>
+  <si>
+    <t>4 Cutthroat</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +258,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -314,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,8 +390,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +405,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -392,6 +415,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,13 +678,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1204,19 +1232,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36496350364963503</c:v>
+                  <c:v>1.3114754098360655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.941605839416056</c:v>
+                  <c:v>37.704918032786885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.043795620437962</c:v>
+                  <c:v>57.704918032786892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36496350364963503</c:v>
+                  <c:v>0.32786885245901637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2846715328467155</c:v>
+                  <c:v>2.9508196721311477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEA264E-C9D6-49AF-9A8A-01C0EA30771C}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,11 +3539,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145DC13E-D8B1-4C6A-91C8-EC57B11FD125}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="15">
+        <f>SUM(G4/$E$8*100)</f>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:I7" si="0">SUM(H4/$E$8*100)</f>
+        <v>70.967741935483872</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <f>SUM(E4:E7)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="18">
+        <f>AVERAGE(E4:E7)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732B40A-C676-4E35-BDB2-7C35D38C3BAA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,16 +3821,16 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f>SUM('2019'!H4)</f>
-        <v>1</v>
+        <f>SUM('2019'!H4+'2020'!G4)</f>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM('2017'!E4+'2018'!F4+'2019'!I4)</f>
-        <v>93</v>
+        <f>SUM('2017'!E4+'2018'!F4+'2019'!I4+'2020'!H4)</f>
+        <v>115</v>
       </c>
       <c r="C3" s="7">
-        <f>SUM('2018'!G4+'2019'!J4)</f>
-        <v>170</v>
+        <f>SUM('2018'!G4+'2019'!J4+'2020'!I4)</f>
+        <v>176</v>
       </c>
       <c r="D3" s="7">
         <f>SUM('2018'!H4)</f>
@@ -3603,23 +3869,23 @@
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>SUM(A3/$B$8*100)</f>
-        <v>0.36496350364963503</v>
+        <v>1.3114754098360655</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(B3/$B$8*100)</f>
-        <v>33.941605839416056</v>
+        <v>37.704918032786885</v>
       </c>
       <c r="C6" s="15">
         <f>SUM(C3/$B$8*100)</f>
-        <v>62.043795620437962</v>
+        <v>57.704918032786892</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D3/$B$8*100)</f>
-        <v>0.36496350364963503</v>
+        <v>0.32786885245901637</v>
       </c>
       <c r="E6" s="15">
         <f>SUM(E3/$B$8*100)</f>
-        <v>3.2846715328467155</v>
+        <v>2.9508196721311477</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3627,8 +3893,8 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C5+'2018'!D9+'2019'!F12)</f>
-        <v>274</v>
+        <f>SUM('2017'!C5+'2018'!D9+'2019'!F12+'2020'!E8)</f>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3636,8 +3902,8 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C6+'2018'!D10+'2019'!F13)</f>
-        <v>14</v>
+        <f>SUM('2017'!C6+'2018'!D10+'2019'!F13+'2020'!E9)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3646,15 +3912,15 @@
       </c>
       <c r="B10" s="9">
         <f>SUM(B8/B9)</f>
-        <v>19.571428571428573</v>
+        <v>16.944444444444443</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>39</v>
+      <c r="B11" s="30" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/Lost Creek/Lost Creek Report.xlsx
+++ b/Overall Stats/Lost Creek/Lost Creek Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Lost Creek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644B537-E37E-4C87-A9E7-5CA772FF0685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247A2D7-8A36-46A6-BC04-4EDB60DBE948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
+    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -393,6 +393,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,9 +407,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2888,12 +2888,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
@@ -2931,12 +2931,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -3010,20 +3010,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3089,12 +3089,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3246,24 +3246,24 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3342,12 +3342,12 @@
       <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145DC13E-D8B1-4C6A-91C8-EC57B11FD125}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3574,23 +3574,23 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -3664,12 +3664,12 @@
       <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="7"/>
       <c r="M5" s="7"/>
     </row>
@@ -3780,7 +3780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732B40A-C676-4E35-BDB2-7C35D38C3BAA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3794,12 +3794,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3842,12 +3842,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3919,7 +3919,7 @@
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Overall Stats/Lost Creek/Lost Creek Report.xlsx
+++ b/Overall Stats/Lost Creek/Lost Creek Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Lost Creek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247A2D7-8A36-46A6-BC04-4EDB60DBE948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9E511-240D-4BBA-AACD-1ABBAD2DBB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3542,7 +3542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145DC13E-D8B1-4C6A-91C8-EC57B11FD125}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3780,7 +3780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732B40A-C676-4E35-BDB2-7C35D38C3BAA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Lost Creek/Lost Creek Report.xlsx
+++ b/Overall Stats/Lost Creek/Lost Creek Report.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Lost Creek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9E511-240D-4BBA-AACD-1ABBAD2DBB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978038E9-B762-43F0-8409-5F54742735FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{8DE2BBAA-EA86-4618-A5D1-9D67D132A723}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="57">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -169,7 +177,37 @@
     <t>4 Cutthroat</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>1 Cutthroat 4 Rainbow</t>
+  </si>
+  <si>
+    <t>2 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>4 Cutthroat 4 Rainbow 1 Splake 1 Tiger</t>
+  </si>
+  <si>
+    <t>4 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>1 Cutthroat 5 Rainbow</t>
+  </si>
+  <si>
+    <t>3 Chub 1 Cutthroat 2 Rainbow</t>
+  </si>
+  <si>
+    <t>48 Chub</t>
+  </si>
+  <si>
+    <t>36 Cutthroat 1 Rainbow 3 Tiger</t>
+  </si>
+  <si>
+    <t>11 Cutthroat 3 Rainbow 2 Tiger</t>
+  </si>
+  <si>
+    <t>9 Cutthroat</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Lost Creek</t>
   </si>
 </sst>
 </file>
@@ -261,7 +299,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFC000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -285,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -329,12 +367,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,12 +436,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +452,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,19 +739,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,19 +1293,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3114754098360655</c:v>
+                  <c:v>12.087912087912088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.704918032786885</c:v>
+                  <c:v>40.439560439560438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.704918032786892</c:v>
+                  <c:v>43.736263736263737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32786885245901637</c:v>
+                  <c:v>0.43956043956043955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9508196721311477</c:v>
+                  <c:v>3.296703296703297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2888,12 +2949,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
@@ -2931,12 +2992,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -3010,20 +3071,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3089,12 +3150,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3246,24 +3307,24 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3342,12 +3403,12 @@
       <c r="G5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3542,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145DC13E-D8B1-4C6A-91C8-EC57B11FD125}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,26 +3632,26 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -3664,12 +3725,12 @@
       <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7"/>
       <c r="M5" s="7"/>
     </row>
@@ -3777,10 +3838,369 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6697E68B-3F85-4518-8B9F-7D284A752659}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="11"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="7">
+        <v>51</v>
+      </c>
+      <c r="I4" s="7">
+        <v>69</v>
+      </c>
+      <c r="J4" s="7">
+        <v>23</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="15">
+        <f>SUM(H4/$F$14*100)</f>
+        <v>34</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" ref="I7:L7" si="0">SUM(I4/$F$14*100)</f>
+        <v>46</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>15.333333333333332</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14">
+        <f>SUM(F4:F13)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="18">
+        <f>AVERAGE(F4:F13)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F732B40A-C676-4E35-BDB2-7C35D38C3BAA}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3794,13 +4214,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3821,33 +4241,34 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f>SUM('2019'!H4+'2020'!G4)</f>
-        <v>4</v>
+        <f>SUM('2019'!H4+'2020'!G4+'2021'!H4)</f>
+        <v>55</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM('2017'!E4+'2018'!F4+'2019'!I4+'2020'!H4)</f>
-        <v>115</v>
+        <f>SUM('2017'!E4+'2018'!F4+'2019'!I4+'2020'!H4+'2021'!I4)</f>
+        <v>184</v>
       </c>
       <c r="C3" s="7">
-        <f>SUM('2018'!G4+'2019'!J4+'2020'!I4)</f>
-        <v>176</v>
+        <f>SUM('2018'!G4+'2019'!J4+'2020'!I4+'2021'!J4)</f>
+        <v>199</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM('2018'!H4)</f>
-        <v>1</v>
+        <f>SUM('2018'!H4+'2021'!K4)</f>
+        <v>2</v>
       </c>
       <c r="E3" s="7">
-        <f>SUM('2018'!I4+'2019'!K4)</f>
-        <v>9</v>
+        <f>SUM('2018'!I4+'2019'!K4+'2021'!L4)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3869,23 +4290,23 @@
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>SUM(A3/$B$8*100)</f>
-        <v>1.3114754098360655</v>
+        <v>12.087912087912088</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(B3/$B$8*100)</f>
-        <v>37.704918032786885</v>
+        <v>40.439560439560438</v>
       </c>
       <c r="C6" s="15">
         <f>SUM(C3/$B$8*100)</f>
-        <v>57.704918032786892</v>
+        <v>43.736263736263737</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(D3/$B$8*100)</f>
-        <v>0.32786885245901637</v>
+        <v>0.43956043956043955</v>
       </c>
       <c r="E6" s="15">
         <f>SUM(E3/$B$8*100)</f>
-        <v>2.9508196721311477</v>
+        <v>3.296703296703297</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3893,8 +4314,8 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C5+'2018'!D9+'2019'!F12+'2020'!E8)</f>
-        <v>305</v>
+        <f>SUM('2017'!C5+'2018'!D9+'2019'!F12+'2020'!E8+'2021'!F14)</f>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3902,8 +4323,8 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C6+'2018'!D10+'2019'!F13+'2020'!E9)</f>
-        <v>18</v>
+        <f>SUM('2017'!C6+'2018'!D10+'2019'!F13+'2020'!E9+'2021'!F15)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3912,21 +4333,21 @@
       </c>
       <c r="B10" s="9">
         <f>SUM(B8/B9)</f>
-        <v>16.944444444444443</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>46</v>
+      <c r="B11" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
